--- a/Caneryy/evidence.xlsx
+++ b/Caneryy/evidence.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\caner\Desktop\testnets\game-of-nfts\caner\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F417446-4D5C-4CE8-9FF1-B25881BA7E2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{377DC1FB-99FC-47A6-930D-F770CDFFD66F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4095" yWindow="3285" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28800" yWindow="0" windowWidth="14400" windowHeight="15600" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="40">
   <si>
     <t>TxHash</t>
   </si>
@@ -79,24 +79,6 @@
     <t>nft id</t>
   </si>
   <si>
-    <t>tx hash on dest chain</t>
-  </si>
-  <si>
-    <t>dest chain id</t>
-  </si>
-  <si>
-    <t>tx hash on irisnet</t>
-  </si>
-  <si>
-    <t>ibc class on dest chain</t>
-  </si>
-  <si>
-    <t>class id you issued</t>
-  </si>
-  <si>
-    <t>nft id you minted</t>
-  </si>
-  <si>
     <t>TeamName</t>
   </si>
   <si>
@@ -140,6 +122,48 @@
   </si>
   <si>
     <t>uptick14dwy5sm8esce4geu3f6paxat6k2evadv7xudqm</t>
+  </si>
+  <si>
+    <t>D437A42F13FEF80260E39927EC0B7AE566581CC8B5E6F2191FFE3BD627CFC75D</t>
+  </si>
+  <si>
+    <t>021F40E7DC895B7C402E9D5F0A2393D4AC9FA84785E69602603EB66FD6643D4C</t>
+  </si>
+  <si>
+    <t>meer2</t>
+  </si>
+  <si>
+    <t>3643DC26C82B9EEABD702D4C122A0FB2F70EC4F3D8845D2CCD77A32E6285D228</t>
+  </si>
+  <si>
+    <t>nft01</t>
+  </si>
+  <si>
+    <t>F2884D81B62334B26FBE060C29E6C075E8266D8277AA7BBCAE5A0FB703525D32</t>
+  </si>
+  <si>
+    <t>nft02</t>
+  </si>
+  <si>
+    <t>juno175hwtyer4075jnekh6xmelga6mzhj8n9tlnnwuujpaa23ulmx77s37nmv4</t>
+  </si>
+  <si>
+    <t>uni-6</t>
+  </si>
+  <si>
+    <t>A3FAE18FF346F1F035EFB1BF4F0E8CAB8547A05E894D39531A838230A96E8238</t>
+  </si>
+  <si>
+    <t>D7ECEF6936C36A203C7067AD2D26E289861C9062576B5EE9C47D5679CDC6359D</t>
+  </si>
+  <si>
+    <t>gon-flixnet-1</t>
+  </si>
+  <si>
+    <t>ibc/A636DB81A0C3EF8ECAE648391FAE77069D51441070E43F3BE10883E272476E5B</t>
+  </si>
+  <si>
+    <t>2E684E54488A17F10A1A7A4796EF09BB0E6BC0C458F3EADEB98600CF624B2A3E</t>
   </si>
 </sst>
 </file>
@@ -213,7 +237,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -225,6 +249,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -534,8 +561,8 @@
   </sheetPr>
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -552,54 +579,54 @@
   <sheetData>
     <row r="1" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>31</v>
-      </c>
       <c r="F2" s="3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="H2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -1034,7 +1061,9 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1051,10 +1080,10 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>15</v>
+        <v>27</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1295,9 +1324,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1318,17 +1349,29 @@
     </row>
     <row r="2" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>15</v>
+        <v>29</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1339,7 +1382,9 @@
   </sheetPr>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1364,16 +1409,16 @@
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>14</v>
+        <v>26</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -1388,7 +1433,9 @@
   </sheetPr>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1413,16 +1460,16 @@
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>14</v>
+        <v>36</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1437,7 +1484,9 @@
   </sheetPr>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1462,16 +1511,16 @@
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>9</v>
+        <v>35</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -1486,7 +1535,9 @@
   </sheetPr>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1511,17 +1562,17 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>9</v>
+      <c r="A2" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/Caneryy/evidence.xlsx
+++ b/Caneryy/evidence.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\caner\Desktop\testnets\game-of-nfts\caner\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{377DC1FB-99FC-47A6-930D-F770CDFFD66F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9C30250-6AF5-49E4-8A3B-09385BB2AEA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="0" windowWidth="14400" windowHeight="15600" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="20" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="86">
   <si>
     <t>TxHash</t>
   </si>
@@ -58,27 +58,12 @@
     <t>ChainID</t>
   </si>
   <si>
-    <t>tx hash on that chain</t>
-  </si>
-  <si>
-    <t>chain id</t>
-  </si>
-  <si>
-    <t>tx hash on that chain	chain id</t>
-  </si>
-  <si>
     <t>ClassID</t>
   </si>
   <si>
     <t>NFTID</t>
   </si>
   <si>
-    <t>ibc class on chain</t>
-  </si>
-  <si>
-    <t>nft id</t>
-  </si>
-  <si>
     <t>TeamName</t>
   </si>
   <si>
@@ -164,6 +149,159 @@
   </si>
   <si>
     <t>2E684E54488A17F10A1A7A4796EF09BB0E6BC0C458F3EADEB98600CF624B2A3E</t>
+  </si>
+  <si>
+    <t>nft03</t>
+  </si>
+  <si>
+    <t>ibc/E0007E98557969EC8A3B2012DA12FCC4B356689629D5AC113C95E9933A0BE717</t>
+  </si>
+  <si>
+    <t>ibc/1910D389946D1E4E5390ED005F1D756B1FE60B438F5141F001FBFBE65682446A</t>
+  </si>
+  <si>
+    <t>nft04</t>
+  </si>
+  <si>
+    <t>ibc/428588DF1112F6466F0E38F14BCF835A9D6BB67FD861BBF04200409F65277827</t>
+  </si>
+  <si>
+    <t>nft05</t>
+  </si>
+  <si>
+    <t>ibc/50E8ADA470132A0DB3456B78B813902362F5B6F32C12CED35B017147169EAF13</t>
+  </si>
+  <si>
+    <t>nft06</t>
+  </si>
+  <si>
+    <t>ibc/51570336265849A24CFA8746D4AA3BF1EE01BB13E9F2FEC024F63202C0BCE4EB</t>
+  </si>
+  <si>
+    <t>nft07</t>
+  </si>
+  <si>
+    <t>nft08</t>
+  </si>
+  <si>
+    <t>ibc/6904247F402BE4D776C41182905DA2D8B6B92912998E5CE5BC7B3BD36AF27176</t>
+  </si>
+  <si>
+    <t>52445E66A17E9FF0932744290DC37C59A6F6C96969A1710F7757AEA135B1E523</t>
+  </si>
+  <si>
+    <t>C870A67BB6EFD39DD6B62A0D968CE4724FC6842371ED2BFE50D29EE83B2DD68B</t>
+  </si>
+  <si>
+    <t>7D9B24081AB3770E7571E4B45FAEDBE730B42BA388B24172E30C24BDF09D1D9B</t>
+  </si>
+  <si>
+    <t>5DF6D282F8323F8F2ED4C459BCB0595E6F57E2297A0F61A7A52197C92943623F</t>
+  </si>
+  <si>
+    <t>gon-irishub-1</t>
+  </si>
+  <si>
+    <t>elgafar-1</t>
+  </si>
+  <si>
+    <t>uptick_7000-2</t>
+  </si>
+  <si>
+    <t>6831F0A70D7531D2C6F0C0FEF1DDC43A251428FBE75937172BCA0209C6833DF6</t>
+  </si>
+  <si>
+    <t>FF058E30815F45AA2E73A975C4AD5321E4FCFA18938A0CAA61240656AEEE5E4D</t>
+  </si>
+  <si>
+    <t>83A74487DD2C4BAA04752955FE6741D2FE30F283F7F406DD9B4A6B97D2023AAA</t>
+  </si>
+  <si>
+    <t>F078FCD7EB76941BD73F5A0334E6AA69F160E27A82EB81759CAE64ED6E2A9FC9</t>
+  </si>
+  <si>
+    <t>E2720E38A12D8DB320C3EB0406F1B0A40A53CDADBE682ABCA83E8AC18E3E0B08</t>
+  </si>
+  <si>
+    <t>DC3C081AB68A1EBF20E9A7EDF22E2A412431CC4BEB8087BA0033CFE6E9F295DB</t>
+  </si>
+  <si>
+    <t>F445266886E77A6280B5B76CBCAF2D8CAC7B3BEE686DA92EC58AB721C76236FC</t>
+  </si>
+  <si>
+    <t>59ECA0CDCF1E80D10B950FBA40C1CBCBCEC16765CFF77A83CB85D6ECF5C327CB</t>
+  </si>
+  <si>
+    <t>240F64D359D8CBFA51D9ADD35E7F50EF5AD1D68663513B1229FE472B89BA57FF</t>
+  </si>
+  <si>
+    <t>86E6984142FE9C84F468A5C7796307F4078CEAFBEE416E5171EA187D2400FDD6</t>
+  </si>
+  <si>
+    <t>8B0913D00CCAC8301BE8F3AEDE4D520E21809263AA9D3C3574390D71D713BAE5</t>
+  </si>
+  <si>
+    <t>24CB3380DFA2D336D779031C66CC7ADBEC3680E13227C109BBEB4AC3F1B71D3D</t>
+  </si>
+  <si>
+    <t>D8A715A59D9248536B3DE0D1A567657C9BE1FE3774C1676DF3E192ECB98F658E</t>
+  </si>
+  <si>
+    <t>6EA8B04F52F5CDF8A57CC43A83872C8B5ADAF9F8C9AEA979DD56D385814620F4</t>
+  </si>
+  <si>
+    <t>8BFBFBB8149E7C31E19C6F39C877515411BF9A8725E0F2A62BCF4994EE1535A9</t>
+  </si>
+  <si>
+    <t>70C8841455745D77BAD5E39DAE25AB275B23F9E79793AFDE9F6A0624072B8634</t>
+  </si>
+  <si>
+    <t>07A0BD8D9A9467C1E366F316BA7FF966E9F9E5FB2FD7A5C565334F7D23A36C7D</t>
+  </si>
+  <si>
+    <t>7E279700C9F8E6BF5B32E4CC173B249C0937829FA78588D397A94EA5B56ADE67</t>
+  </si>
+  <si>
+    <t>B6A7D91C1F40151C136F81F2D508925FDF63D1794FDF87D155B940D47AE64FBA</t>
+  </si>
+  <si>
+    <t>73E28CDED167E3D5C0175FCF15AFFCFB070CD0F90456A7BE12788E9E77579FBF</t>
+  </si>
+  <si>
+    <t>590D45062AF84B1890905BC6890B26AAE5E393E8D9E7BE4FC48049B82110E56C</t>
+  </si>
+  <si>
+    <t>3532710746CDF6D01BDE29F88D12F93682674CC3CF771A4278AECBD4614DD1BB</t>
+  </si>
+  <si>
+    <t>54C445F21983DA74BF1D99FF6310428B731A77FA47E2871FEFD87B2437108660</t>
+  </si>
+  <si>
+    <t>59EDEFE0D485562F2CC92B1E2BAE927757C30F6E6D6E543BC1AE4D184F6981E2</t>
+  </si>
+  <si>
+    <t>F0D258F572991D0B0C57CE997213FF647ADBDBAB7F2733FE2051ECDCFA4DDF41</t>
+  </si>
+  <si>
+    <t>16D1A006D6CC280DC28719FA4B2E524E483AC5B52BE5A24AE065F8649F7FC119</t>
+  </si>
+  <si>
+    <t>C70296D2DF0FBC848DDDDBF427BB0F35F970C7195F6DCD0BC454FBEB2741155D</t>
+  </si>
+  <si>
+    <t>DD297DFC6A6B1B1BE789B0F6920C770DB779F91FC618F286BCE719E4BA4BCF36</t>
+  </si>
+  <si>
+    <t>E6CD8580CA18E2CBE294D850A3EB0A9E6834997729B84E5D043E1FE8345D73EF</t>
+  </si>
+  <si>
+    <t>6CDA79B97715EADFCCCCE11CBD2AC6D28884AC42E8C6B55AD86EFD4983924EFE</t>
+  </si>
+  <si>
+    <t>B1C6DDCF36009D46C8898545BD6C60EC7470BC06798A5C9C2E5B89B66A306525</t>
+  </si>
+  <si>
+    <t>626A1D0AA860812F394143D06548863578F45919209B66F0D23F7DED98B387FA</t>
   </si>
 </sst>
 </file>
@@ -579,54 +717,54 @@
   <sheetData>
     <row r="1" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="H2" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -641,7 +779,9 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -651,18 +791,18 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -677,7 +817,9 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -687,18 +829,18 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -713,7 +855,9 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -723,18 +867,18 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -749,7 +893,9 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -759,18 +905,18 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -783,9 +929,74 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -803,35 +1014,51 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>54</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>55</v>
+      </c>
+      <c r="B3" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
+        <v>56</v>
+      </c>
+      <c r="B4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -849,35 +1076,51 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>58</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>59</v>
+      </c>
+      <c r="B3" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
+        <v>60</v>
+      </c>
+      <c r="B4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -895,35 +1138,113 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>62</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>67</v>
+      </c>
+      <c r="B3" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
+        <v>68</v>
+      </c>
+      <c r="B4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -941,35 +1262,166 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>4</v>
       </c>
+    </row>
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>75</v>
+      </c>
+      <c r="B3" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
+        <v>76</v>
+      </c>
+      <c r="B4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>79</v>
+      </c>
+      <c r="B7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -987,195 +1439,50 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>80</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>81</v>
+      </c>
+      <c r="B3" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>82</v>
+      </c>
+      <c r="B4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>85</v>
+      </c>
+      <c r="B7" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -1341,32 +1648,32 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -1398,10 +1705,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -1409,16 +1716,16 @@
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -1449,10 +1756,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -1460,16 +1767,16 @@
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1484,7 +1791,7 @@
   </sheetPr>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
@@ -1500,10 +1807,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -1511,16 +1818,16 @@
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -1536,7 +1843,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1552,10 +1859,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -1563,89 +1870,93 @@
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>39</v>
+        <v>34</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>10</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Caneryy/evidence.xlsx
+++ b/Caneryy/evidence.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\caner\Desktop\testnets\game-of-nfts\caner\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9C30250-6AF5-49E4-8A3B-09385BB2AEA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ACF75D7-76EA-4D51-B4D1-8299B020DB44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="20" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="22" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="90">
   <si>
     <t>TxHash</t>
   </si>
@@ -302,6 +302,18 @@
   </si>
   <si>
     <t>626A1D0AA860812F394143D06548863578F45919209B66F0D23F7DED98B387FA</t>
+  </si>
+  <si>
+    <t>9633F83368825C34E46B5779D6304BA8EAC51FDC50A7F7A424680933F457F809</t>
+  </si>
+  <si>
+    <t>F31119E98603DF3E56B0328880294BFE263DA484CBB38D5A8846651D707C8EA7</t>
+  </si>
+  <si>
+    <t>84CC2EBB2EAC61A4BCF50CA11E8692A240DF2BB15A2770EEA784EFC382990968</t>
+  </si>
+  <si>
+    <t>105451AAE718F532E02092B630267BC857920CAE499AFC51044A73ED1E8D6503</t>
   </si>
 </sst>
 </file>
@@ -1419,7 +1431,7 @@
   </sheetPr>
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
@@ -1497,7 +1509,9 @@
   </sheetPr>
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1511,12 +1525,12 @@
     </row>
     <row r="2" spans="1:1" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>1</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>2</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -1531,7 +1545,9 @@
   </sheetPr>
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1545,12 +1561,12 @@
     </row>
     <row r="2" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>1</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>2</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>

--- a/Caneryy/evidence.xlsx
+++ b/Caneryy/evidence.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\caner\Desktop\testnets\game-of-nfts\caner\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ACF75D7-76EA-4D51-B4D1-8299B020DB44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5642612-694A-438D-82B3-C1EF97D3FC84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="22" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="4" activeTab="25" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -38,23 +38,18 @@
     <sheet name="B2" sheetId="23" r:id="rId23"/>
     <sheet name="B5" sheetId="24" r:id="rId24"/>
     <sheet name="B6" sheetId="25" r:id="rId25"/>
+    <sheet name="B7" sheetId="26" r:id="rId26"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="94">
   <si>
     <t>TxHash</t>
   </si>
   <si>
-    <t>The first Interchain NFT-Transfer TxHash</t>
-  </si>
-  <si>
-    <t>The Internal Transfer TxHash on IRISnet</t>
-  </si>
-  <si>
     <t>ChainID</t>
   </si>
   <si>
@@ -314,6 +309,24 @@
   </si>
   <si>
     <t>105451AAE718F532E02092B630267BC857920CAE499AFC51044A73ED1E8D6503</t>
+  </si>
+  <si>
+    <t>AFB8DED449032012222F3D7C91C033AE0A7AA1AEBB3961A0E3EAB39AF3EEACEB</t>
+  </si>
+  <si>
+    <t>F8939BA10B4F25D379DC2844AE3729F5FAF117B638EA38BE40FBF9757281BE98</t>
+  </si>
+  <si>
+    <t>EEED93D2AFF94811D784C0B3249C7F3362C9CF315D6236ED75DB877E4A39879B</t>
+  </si>
+  <si>
+    <t>2982A11FAE5A5036CEB81FA3BE3C7C9121855FBB48543C1E9E451A28C5AAC536</t>
+  </si>
+  <si>
+    <t>C58714FA87AA36F802AA33BB3AE22D084AF8946A60EA2F57873BFF49E67309C5</t>
+  </si>
+  <si>
+    <t>B430005DAF2EE56FA84F8B656C34A4DFEC9BDB64E81ED1727C29A9C29CF48AF1</t>
   </si>
 </sst>
 </file>
@@ -729,54 +742,54 @@
   <sheetData>
     <row r="1" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="E2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -803,10 +816,48 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -822,15 +873,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -841,10 +892,10 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -860,15 +911,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -879,34 +930,97 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>43</v>
       </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>45</v>
+      </c>
       <c r="B2" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -917,97 +1031,58 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B4" t="s">
-        <v>53</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+        <v>51</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1021,55 +1096,55 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B3" t="s">
-        <v>53</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1083,55 +1158,117 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B4" t="s">
-        <v>53</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C2" sqref="C2:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1145,52 +1282,89 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="B4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B5"/>
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
@@ -1207,55 +1381,71 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="B3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="B5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C5"/>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1269,232 +1459,55 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B3" t="s">
         <v>51</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="B3" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="B4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>77</v>
-      </c>
-      <c r="B5" t="s">
-        <v>53</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B7" t="s">
-        <v>52</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B2" s="2" t="s">
         <v>51</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>83</v>
-      </c>
-      <c r="B5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>84</v>
-      </c>
-      <c r="B6" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>85</v>
-      </c>
-      <c r="B7" t="s">
-        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -1524,6 +1537,42 @@
       </c>
     </row>
     <row r="2" spans="1:1" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>86</v>
       </c>
@@ -1538,15 +1587,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1574,14 +1623,16 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1595,46 +1646,42 @@
     </row>
     <row r="2" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>1</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
+        <v>91</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0302DE0A-C98B-4AB3-A978-182C0592AF51}">
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>2</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -1664,32 +1711,32 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -1721,27 +1768,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -1772,27 +1819,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="C2" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1823,27 +1870,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -1875,66 +1922,66 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>34</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>35</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1960,18 +2007,18 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
